--- a/participants/participant_42/participant_42_task_orders.xlsx
+++ b/participants/participant_42/participant_42_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1649873134673668" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498731383781993" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498731383791642" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498731384271657" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1649873138488163" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502912691014845" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502912724164429" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650291272418403" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502912724901783" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502912725928879" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498731346326692.csv</t>
+          <t>go_stims-16502912690659711.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731346567004.csv</t>
+          <t>GNG_stims-16502912690828063.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498731346586666.csv</t>
+          <t>go_stims-1650291269084816.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731346727011.csv</t>
+          <t>GNG_stims-16502912691014845.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_3-16498731348086646.csv</t>
+          <t>TB-16502912721017494.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16498731383151944.csv</t>
+          <t>TB-1650291272391527.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-1649873136939664.csv</t>
+          <t>OB-16502912710803099.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16498731383581655.csv</t>
+          <t>ZB-match_0-165029126955121.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16498731354616616.csv</t>
+          <t>OB-16502912708630116.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_1-16498731352836616.csv</t>
+          <t>ZB-match_4-16502912703422692.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16498731363566663.csv</t>
+          <t>ZB-match_0-16502912701698039.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_3-16498731353586662.csv</t>
+          <t>TB-1650291271246063.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16498731372106628.csv</t>
+          <t>OB-1650291270781753.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1649873138394197.csv</t>
+          <t>MM_stims-16502912724431565.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731383811638.csv</t>
+          <t>ZM_stims-16502912724194016.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498731384101915.csv</t>
+          <t>MM_stims-16502912724739642.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731383951647.csv</t>
+          <t>ZM_stims-1650291272444166.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498731384261637.csv</t>
+          <t>MM_stims-16502912724901783.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731384111652.csv</t>
+          <t>ZM_stims-16502912724749293.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731384421651.csv</t>
+          <t>vSAT_stims-16502912725776274.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731384301646.csv</t>
+          <t>SAT_stims-16502912724947903.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731384721665.csv</t>
+          <t>vSAT_stims-16502912725472598.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731384571643.csv</t>
+          <t>SAT_stims-16502912725206547.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_42/participant_42_task_orders.xlsx
+++ b/participants/participant_42/participant_42_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502912691014845" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502912724164429" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650291272418403" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502912724901783" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502912725928879" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650477881132394" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650477883796042" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778837980092" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778838440104" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778839050398" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502912690659711.csv</t>
+          <t>go_stims-16504778811043937.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912690828063.csv</t>
+          <t>GNG_stims-16504778811154273.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650291269084816.csv</t>
+          <t>go_stims-16504778811163926.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912691014845.csv</t>
+          <t>GNG_stims-1650477881131392.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16502912721017494.csv</t>
+          <t>ZB-match_7-1650477881339391.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-1650291272391527.csv</t>
+          <t>ZB-match_0-16504778814823954.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16502912710803099.csv</t>
+          <t>TB-16504778826793938.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_0-165029126955121.csv</t>
+          <t>OB-16504778818443933.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16502912708630116.csv</t>
+          <t>ZB-match_3-16504778814593966.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_4-16502912703422692.csv</t>
+          <t>TB-16504778820384257.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_0-16502912701698039.csv</t>
+          <t>TB-16504778837690392.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-1650291271246063.csv</t>
+          <t>OB-16504778816013942.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-1650291270781753.csv</t>
+          <t>OB-16504778818603961.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502912724431565.csv</t>
+          <t>MM_stims-1650477883812007.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912724194016.csv</t>
+          <t>ZM_stims-1650477883799009.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502912724739642.csv</t>
+          <t>MM_stims-16504778838280413.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291272444166.csv</t>
+          <t>ZM_stims-16504778838130088.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502912724901783.csv</t>
+          <t>MM_stims-165047788384304.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912724749293.csv</t>
+          <t>ZM_stims-16504778838290062.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912725776274.csv</t>
+          <t>vSAT_stims-1650477883874006.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912724947903.csv</t>
+          <t>vSAT_stims-16504778838910065.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912725472598.csv</t>
+          <t>SAT_stims-165047788384601.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912725206547.csv</t>
+          <t>SAT_stims-16504778838580086.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_42/participant_42_task_orders.xlsx
+++ b/participants/participant_42/participant_42_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650477881132394" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650477883796042" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778837980092" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778838440104" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778839050398" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509961797647493" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509961818767438" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509961818767438" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961819327393" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961819967194" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778811043937.csv</t>
+          <t>go_stims-16509961797167156.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778811154273.csv</t>
+          <t>GNG_stims-1650996179740705.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778811163926.csv</t>
+          <t>go_stims-1650996179740705.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650477881131392.csv</t>
+          <t>GNG_stims-16509961797647493.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_7-1650477881339391.csv</t>
+          <t>OB-16509961807007046.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_0-16504778814823954.csv</t>
+          <t>TB-16509961818607152.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16504778826793938.csv</t>
+          <t>ZB-match_6-16509961805327325.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16504778818443933.csv</t>
+          <t>TB-16509961815487099.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_3-16504778814593966.csv</t>
+          <t>OB-16509961813407073.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16504778820384257.csv</t>
+          <t>OB-16509961810287411.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16504778837690392.csv</t>
+          <t>TB-16509961814767141.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16504778816013942.csv</t>
+          <t>ZB-match_8-16509961804927433.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16504778818603961.csv</t>
+          <t>ZB-match_5-16509961799807155.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650477883812007.csv</t>
+          <t>MM_stims-16509961818927152.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477883799009.csv</t>
+          <t>ZM_stims-16509961818767438.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778838280413.csv</t>
+          <t>MM_stims-16509961819087477.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778838130088.csv</t>
+          <t>ZM_stims-16509961818927152.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-165047788384304.csv</t>
+          <t>MM_stims-16509961819327393.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778838290062.csv</t>
+          <t>ZM_stims-16509961819087477.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650477883874006.csv</t>
+          <t>SAT_stims-16509961819327393.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778838910065.csv</t>
+          <t>vSAT_stims-16509961819647484.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-165047788384601.csv</t>
+          <t>vSAT_stims-16509961819807413.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778838580086.csv</t>
+          <t>SAT_stims-1650996181948707.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_42/participant_42_task_orders.xlsx
+++ b/participants/participant_42/participant_42_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509961797647493" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509961818767438" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509961818767438" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961819327393" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961819967194" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511687816523147" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651168785092949" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651168785092949" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511687851399388" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1651168785236119" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509961797167156.csv</t>
+          <t>go_stims-16511687816079183.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1650996179740705.csv</t>
+          <t>GNG_stims-16511687816349216.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650996179740705.csv</t>
+          <t>go_stims-1651168781635971.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961797647493.csv</t>
+          <t>GNG_stims-1651168781651313.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16509961807007046.csv</t>
+          <t>ZB-match_7-16511687819235182.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16509961818607152.csv</t>
+          <t>OB-16511687832816553.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_6-16509961805327325.csv</t>
+          <t>TB-1651168784443473.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16509961815487099.csv</t>
+          <t>ZB-match_5-16511687821657462.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16509961813407073.csv</t>
+          <t>TB-1651168783549834.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16509961810287411.csv</t>
+          <t>TB-1651168785079285.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16509961814767141.csv</t>
+          <t>ZB-match_5-16511687818978179.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_8-16509961804927433.csv</t>
+          <t>OB-16511687827319396.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_5-16509961799807155.csv</t>
+          <t>OB-16511687829064782.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509961818927152.csv</t>
+          <t>MM_stims-16511687851097288.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961818767438.csv</t>
+          <t>ZM_stims-16511687850963194.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509961819087477.csv</t>
+          <t>MM_stims-16511687851244512.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961818927152.csv</t>
+          <t>ZM_stims-16511687851107218.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961819327393.csv</t>
+          <t>MM_stims-16511687851399388.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961819087477.csv</t>
+          <t>ZM_stims-16511687851254554.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961819327393.csv</t>
+          <t>SAT_stims-16511687851448247.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961819647484.csv</t>
+          <t>vSAT_stims-16511687852138677.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961819807413.csv</t>
+          <t>vSAT_stims-1651168785187522.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-1650996181948707.csv</t>
+          <t>SAT_stims-1651168785171964.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_42/participant_42_task_orders.xlsx
+++ b/participants/participant_42/participant_42_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511687816523147" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1651168785092949" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651168785092949" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511687851399388" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1651168785236119" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512556056162512" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512556077562475" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651255607758249" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512556078212523" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512556078982496" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511687816079183.csv</t>
+          <t>go_stims-16512556055762498.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687816349216.csv</t>
+          <t>GNG_stims-16512556055992508.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1651168781635971.csv</t>
+          <t>go_stims-16512556056002512.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1651168781651313.csv</t>
+          <t>GNG_stims-16512556056152499.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_7-16511687819235182.csv</t>
+          <t>TB-16512556075662482.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16511687832816553.csv</t>
+          <t>TB-1651255607739249.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-1651168784443473.csv</t>
+          <t>OB-16512556060712495.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_5-16511687821657462.csv</t>
+          <t>OB-16512556060462477.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-1651168783549834.csv</t>
+          <t>TB-1651255606980251.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1651168785079285.csv</t>
+          <t>ZB-match_0-1651255605871251.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_5-16511687818978179.csv</t>
+          <t>ZB-match_1-16512556056312494.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16511687827319396.csv</t>
+          <t>OB-1651255606414249.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16511687829064782.csv</t>
+          <t>ZB-match_1-16512556060142522.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511687851097288.csv</t>
+          <t>MM_stims-16512556077872493.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687850963194.csv</t>
+          <t>ZM_stims-16512556077652495.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511687851244512.csv</t>
+          <t>MM_stims-165125560780325.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687851107218.csv</t>
+          <t>ZM_stims-16512556077882524.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511687851399388.csv</t>
+          <t>MM_stims-1651255607819247.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687851254554.csv</t>
+          <t>ZM_stims-16512556078042517.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687851448247.csv</t>
+          <t>vSAT_stims-1651255607883254.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687852138677.csv</t>
+          <t>SAT_stims-16512556078512523.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168785187522.csv</t>
+          <t>SAT_stims-16512556078272586.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-1651168785171964.csv</t>
+          <t>vSAT_stims-16512556078662486.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_42/participant_42_task_orders.xlsx
+++ b/participants/participant_42/participant_42_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512556056162512" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512556077562475" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651255607758249" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512556078212523" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512556078982496" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="NB_TO-16515890331842973" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TOL_TO-1651589033231173" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="GNG_TO-16515890332624226" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RS_TO-16515890332624226" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16515890333249228" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512556055762498.csv</t>
+          <t>ZB-match_4-1651589031995488.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512556055992508.csv</t>
+          <t>TB-1651589033054729.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512556056002512.csv</t>
+          <t>TB-16515890331686702.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512556056152499.csv</t>
+          <t>ZB-match_2-165158903177121.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>OB-16515890327214031.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TB-16515890329578586.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ZB-match_4-16515890319798965.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>OB-16515890322477357.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>OB-16515890322816722.csv</t>
         </is>
       </c>
     </row>
@@ -495,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +566,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16512556075662482.csv</t>
+          <t>MM_stims-1651589033199923.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +576,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-1651255607739249.csv</t>
+          <t>ZM_stims-16515890331842973.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +586,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16512556060712495.csv</t>
+          <t>MM_stims-16515890332155497.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16512556060462477.csv</t>
+          <t>ZM_stims-1651589033199923.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-1651255606980251.csv</t>
+          <t>MM_stims-1651589033231173.csv</t>
         </is>
       </c>
     </row>
@@ -566,37 +616,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_0-1651255605871251.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ZB-match_1-16512556056312494.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>OB-1651255606414249.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ZB-match_1-16512556060142522.csv</t>
+          <t>ZM_stims-16515890332155497.csv</t>
         </is>
       </c>
     </row>
@@ -606,6 +626,72 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>go_stims-1651589033231173.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GNG_stims-16515890332467983.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>go_stims-16515890332467983.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GNG_stims-16515890332624226.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -632,7 +718,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,93 +728,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MM_stims-16512556077872493.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512556077652495.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MM_stims-165125560780325.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512556077882524.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-1651255607819247.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512556078042517.csv</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651255607883254.csv</t>
+          <t>vSAT_stims-16515890333092985.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16512556078512523.csv</t>
+          <t>vSAT_stims-1651589033293672.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16512556078272586.csv</t>
+          <t>SAT_stims-16515890332780483.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512556078662486.csv</t>
+          <t>SAT_stims-16515890332624226.csv</t>
         </is>
       </c>
     </row>
